--- a/medicine/Psychotrope/Château_Léoville_Barton/Château_Léoville_Barton.xlsx
+++ b/medicine/Psychotrope/Château_Léoville_Barton/Château_Léoville_Barton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_L%C3%A9oville_Barton</t>
+          <t>Château_Léoville_Barton</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Léoville Barton, est un domaine viticole situé à Saint-Julien-Beychevelle en Gironde. En AOC saint-julien, il est classé deuxième grand cru au classement de 1855. Le domaine comprend 47 hectares en vigne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_L%C3%A9oville_Barton</t>
+          <t>Château_Léoville_Barton</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine de Léoville formait jusqu'au XIXe siècle un des plus vastes et des plus anciens crus du Médoc. Il s'étendait du vignoble de Château Beychevelle jusqu'au Château Latour à Pauillac. Il a été divisé en trois parties :
 Château Léoville Las Cases
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_L%C3%A9oville_Barton</t>
+          <t>Château_Léoville_Barton</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le vignoble de Château Léoville Barton présente un encépagement comme suit:
 72 % cabernet-sauvignon
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_L%C3%A9oville_Barton</t>
+          <t>Château_Léoville_Barton</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin séjourne 18 à 20 mois dans des barriques de chêne en moyennes neuves à 60 %.
 </t>
